--- a/custom_output/evaluation_results.xlsx
+++ b/custom_output/evaluation_results.xlsx
@@ -446,85 +446,85 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>threshold</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>sdr_original</t>
+          <t>clipped_percentage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>sdr_improvement</t>
+          <t>sdr_orig</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>delta_sdr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pesq_orig</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>delta_pesq</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cycles</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>processing_time</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>clipped_percentage</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pesq_i</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>pesq_imp</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cycles</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>237-134500-0011.wav</t>
+          <t>260-123286-0011.wav</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>16000</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
       <c r="E2" t="n">
-        <v>-10.38836550301367</v>
+        <v>35.7875</v>
       </c>
       <c r="F2" t="n">
-        <v>18.61393921628014</v>
+        <v>-7.640146786808966</v>
       </c>
       <c r="G2" t="n">
-        <v>3.678699970245361</v>
+        <v>12.42256415709177</v>
       </c>
       <c r="H2" t="n">
-        <v>26.6375</v>
+        <v>1.176700353622437</v>
       </c>
       <c r="I2" t="n">
-        <v>1.568453669548035</v>
+        <v>0.09019732475280762</v>
       </c>
       <c r="J2" t="n">
-        <v>1.539692759513855</v>
+        <v>13048</v>
       </c>
       <c r="K2" t="n">
-        <v>9484</v>
+        <v>4.355284452438354</v>
       </c>
     </row>
   </sheetData>

--- a/custom_output/evaluation_results.xlsx
+++ b/custom_output/evaluation_results.xlsx
@@ -509,22 +509,22 @@
         <v>35.7875</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.640146786808966</v>
+        <v>-7.640146786808967</v>
       </c>
       <c r="G2" t="n">
-        <v>12.42256415709177</v>
+        <v>18.72588533372332</v>
       </c>
       <c r="H2" t="n">
         <v>1.176700353622437</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09019732475280762</v>
+        <v>0.468285083770752</v>
       </c>
       <c r="J2" t="n">
-        <v>13048</v>
+        <v>16581</v>
       </c>
       <c r="K2" t="n">
-        <v>4.355284452438354</v>
+        <v>2.983647584915161</v>
       </c>
     </row>
   </sheetData>
